--- a/Test Open Xml/test3.xlsx
+++ b/Test Open Xml/test3.xlsx
@@ -43,6 +43,9 @@
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>TheString</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TheStringValue</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -429,7 +432,7 @@
   <x:sheetData>
     <x:row r="2">
       <x:c r="C2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
